--- a/food.xlsx
+++ b/food.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,6 +429,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
